--- a/DataNV/Петрів.xlsx
+++ b/DataNV/Петрів.xlsx
@@ -16,10 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="##0"/>
-    <numFmt numFmtId="165" formatCode="dd mm yyyy"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -30,34 +27,16 @@
     </font>
     <font>
       <b val="1"/>
-      <color rgb="00ffffff"/>
+      <color rgb="00000000"/>
       <sz val="10"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="2">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="005a61f0"/>
-        <bgColor rgb="005a61f0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E9FFE6"/>
-        <bgColor rgb="00E9FFE6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F5FFC3"/>
-        <bgColor rgb="00F5FFC3"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -72,15 +51,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -446,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB3"/>
+  <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,12 +431,12 @@
   <cols>
     <col width="4" customWidth="1" min="1" max="1"/>
     <col width="10" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
-    <col width="22" customWidth="1" min="4" max="4"/>
-    <col width="15" customWidth="1" min="5" max="5"/>
-    <col width="18" customWidth="1" min="6" max="6"/>
-    <col width="12" customWidth="1" min="7" max="7"/>
-    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="2" customWidth="1" min="3" max="3"/>
+    <col width="30" customWidth="1" min="4" max="4"/>
+    <col width="18" customWidth="1" min="5" max="5"/>
+    <col width="5" customWidth="1" min="6" max="6"/>
+    <col width="33" customWidth="1" min="7" max="7"/>
+    <col width="18" customWidth="1" min="8" max="8"/>
     <col width="10" customWidth="1" min="9" max="9"/>
     <col width="12" customWidth="1" min="10" max="10"/>
     <col width="9" customWidth="1" min="11" max="11"/>
@@ -475,13 +450,13 @@
     <col width="20" customWidth="1" min="19" max="19"/>
     <col width="20" customWidth="1" min="20" max="20"/>
     <col width="18" customWidth="1" min="21" max="21"/>
-    <col width="20" customWidth="1" min="22" max="22"/>
+    <col width="24" customWidth="1" min="22" max="22"/>
     <col width="10" customWidth="1" min="23" max="23"/>
     <col width="17" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="10" customWidth="1" min="26" max="26"/>
     <col width="5" customWidth="1" min="27" max="27"/>
-    <col width="20" customWidth="1" min="28" max="28"/>
+    <col width="12" customWidth="1" min="28" max="28"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -627,228 +602,99 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B2" s="3" t="inlineStr">
-        <is>
-          <t>25.01.2022</t>
-        </is>
-      </c>
-      <c r="C2" s="4" t="inlineStr">
-        <is>
-          <t>10:05:12</t>
-        </is>
-      </c>
-      <c r="D2" s="5" t="inlineStr">
-        <is>
-          <t>Заказ-наряд ЗНGA005446 от 25.01.2022 10:05:12</t>
-        </is>
-      </c>
-      <c r="E2" s="4" t="inlineStr">
+      <c r="A2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>18.07.2024</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>10:49:37</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Наряд-замовлення ЗНGA026597 від 18.07.2024</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
         <is>
           <t>Заявка</t>
         </is>
       </c>
-      <c r="F2" s="5" t="inlineStr">
-        <is>
-          <t>25.01.2022 17:47:12</t>
-        </is>
-      </c>
-      <c r="G2" s="4" t="n"/>
-      <c r="H2" s="5" t="inlineStr">
-        <is>
-          <t>Відновлювальний ремонт</t>
-        </is>
-      </c>
-      <c r="I2" s="4" t="inlineStr">
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>18.07.2024 16:22:04</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Поточний ремонт</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
         <is>
           <t>Петрів І.Я.</t>
         </is>
       </c>
-      <c r="J2" s="5" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>Не проведен</t>
         </is>
       </c>
-      <c r="K2" s="4" t="n"/>
-      <c r="L2" s="5" t="n">
-        <v>3881.28</v>
-      </c>
-      <c r="M2" s="4" t="n"/>
-      <c r="N2" s="5" t="n">
-        <v>3234.4</v>
-      </c>
-      <c r="O2" s="4" t="n"/>
-      <c r="P2" s="5" t="n"/>
-      <c r="Q2" s="4" t="n"/>
-      <c r="R2" s="5" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="S2" s="4" t="inlineStr">
-        <is>
-          <t>Експрес Страхування ТДВ</t>
-        </is>
-      </c>
-      <c r="T2" s="5" t="inlineStr">
-        <is>
-          <t>ДЗЮМЕДЗЕЙ АНДРІЙ ІГОРОВИЧ</t>
-        </is>
-      </c>
-      <c r="U2" s="4" t="inlineStr">
-        <is>
-          <t>+38 (073) 1825632</t>
-        </is>
-      </c>
-      <c r="V2" s="5" t="inlineStr">
-        <is>
-          <t>Sportage 1.6 LX 2WD 6A/T</t>
-        </is>
-      </c>
-      <c r="W2" s="4" t="inlineStr">
-        <is>
-          <t>ВС4323МХ</t>
-        </is>
-      </c>
-      <c r="X2" s="5" t="inlineStr">
-        <is>
-          <t>U5YPG814BML085776</t>
-        </is>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>7000</v>
-      </c>
-      <c r="Z2" s="5" t="inlineStr">
-        <is>
-          <t>10.09.2021</t>
-        </is>
-      </c>
-      <c r="AA2" s="4" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
-      </c>
-      <c r="AB2" s="5" t="inlineStr">
-        <is>
-          <t>Юридическое лицо</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>13.07.2022</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
-          <t>09:03:16</t>
-        </is>
-      </c>
-      <c r="D3" s="5" t="inlineStr">
-        <is>
-          <t>Заказ-наряд ЗНGA000815 от 13.07.2022 15:03:16</t>
-        </is>
-      </c>
-      <c r="E3" s="4" t="inlineStr">
-        <is>
-          <t>Ожидание деталей</t>
-        </is>
-      </c>
-      <c r="F3" s="5" t="inlineStr">
-        <is>
-          <t>13.07.2022 11:51:00</t>
-        </is>
-      </c>
-      <c r="G3" s="4" t="inlineStr">
-        <is>
-          <t>Ремонт електрообладнання. Очікування блока керування двигуном</t>
-        </is>
-      </c>
-      <c r="H3" s="5" t="inlineStr">
-        <is>
-          <t>Поточний ремонт</t>
-        </is>
-      </c>
-      <c r="I3" s="4" t="inlineStr">
-        <is>
-          <t>Петрів І.Я.</t>
-        </is>
-      </c>
-      <c r="J3" s="5" t="inlineStr">
-        <is>
-          <t>Не проведен</t>
-        </is>
-      </c>
-      <c r="K3" s="4" t="n">
-        <v>2325.96</v>
-      </c>
-      <c r="L3" s="5" t="n">
-        <v>729.6</v>
-      </c>
-      <c r="M3" s="4" t="n">
-        <v>1938.3</v>
-      </c>
-      <c r="N3" s="5" t="n">
-        <v>608</v>
-      </c>
-      <c r="O3" s="4" t="n">
-        <v>2546.3</v>
-      </c>
-      <c r="P3" s="5" t="n">
-        <v>775.3200000000001</v>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>3055.56</v>
-      </c>
-      <c r="R3" s="5" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="S3" s="4" t="inlineStr">
-        <is>
-          <t>УКРТРАНСГАЗ</t>
-        </is>
-      </c>
-      <c r="T3" s="5" t="inlineStr">
-        <is>
-          <t>УКРТРАНСГАЗ</t>
-        </is>
-      </c>
-      <c r="U3" s="4" t="inlineStr">
-        <is>
-          <t>+38 (044) 4612011</t>
-        </is>
-      </c>
-      <c r="V3" s="5" t="inlineStr">
-        <is>
-          <t>OMEGA 2.0i</t>
-        </is>
-      </c>
-      <c r="W3" s="4" t="inlineStr">
-        <is>
-          <t>АТ3065ВА</t>
-        </is>
-      </c>
-      <c r="X3" s="5" t="inlineStr">
-        <is>
-          <t>WOL000025V1157904</t>
-        </is>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>100000</v>
-      </c>
-      <c r="Z3" s="5" t="n"/>
-      <c r="AA3" s="4" t="inlineStr">
-        <is>
-          <t>1997</t>
-        </is>
-      </c>
-      <c r="AB3" s="5" t="inlineStr">
-        <is>
-          <t>Юридическое лицо</t>
+      <c r="L2" t="n">
+        <v>1704.6</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1420.5</v>
+      </c>
+      <c r="R2" t="n">
+        <v>2.841</v>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>УПРАВЛІННЯ МАЙНОМ СПІЛЬНОЇ ВЛАСН ЛОР</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>УПРАВЛІННЯ МАЙНОМ СПІЛЬНОЇ ВЛАСН ЛОР</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>+38 (097) 6550877</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>VW Caddy 2,0</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>ВС7463СХ</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>WV2ZZZ2KZEX065115</t>
+        </is>
+      </c>
+      <c r="Y2" t="n">
+        <v>118383</v>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>Юридична особа</t>
         </is>
       </c>
     </row>

--- a/DataNV/Петрів.xlsx
+++ b/DataNV/Петрів.xlsx
@@ -603,7 +603,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -617,7 +617,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Наряд-замовлення ЗНGA026597 від 18.07.2024</t>
+          <t>Наряд-замовлення ЗНGA026597 від 18.07.2024 10:49:37</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
